--- a/source files/9.xlsx
+++ b/source files/9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maayan\Desktop\xls\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sentiment analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97753CFE-227C-4AC7-B688-220D2FA74971}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F5E17E-312C-46C0-B762-473B671FBA2F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -824,10 +824,13 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="159.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
